--- a/NIST SP 800-53(4).xlsx
+++ b/NIST SP 800-53(4).xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22860" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="controls" sheetId="1" r:id="rId1"/>
     <sheet name="families" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1181,7 +1186,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1232,15 +1280,15 @@
     <sortCondition ref="B1:B19"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="abbrev"/>
-    <tableColumn id="3" name="controls_entry_count" dataDxfId="2">
+    <tableColumn id="1" name="name" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="abbrev" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="controls_entry_count" dataDxfId="7" totalsRowDxfId="2">
       <calculatedColumnFormula>COUNTIF(controls!A:A,Table2[[#This Row],[abbrev]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="controls_count" dataDxfId="1">
+    <tableColumn id="4" name="controls_count" dataDxfId="6" totalsRowDxfId="1">
       <calculatedColumnFormula>COUNTIFS(controls!A:A,Table2[[#This Row],[abbrev]],controls!C:C,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="enhancements_count" dataDxfId="0">
+    <tableColumn id="5" name="enhancements_count" dataDxfId="5" totalsRowDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[controls_entry_count]]-Table2[[#This Row],[controls_count]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1537,20 +1585,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="5" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1611,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1698,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1727,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1741,7 +1789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1755,7 +1803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1783,7 +1831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1797,7 +1845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1853,7 +1901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1895,7 +1943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1923,7 +1971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +1999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1965,7 +2013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1979,7 +2027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1993,7 +2041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +2069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2035,7 +2083,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2049,7 +2097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2077,7 +2125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2091,7 +2139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2105,7 +2153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2119,7 +2167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2133,7 +2181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2147,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2209,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2175,7 +2223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2217,7 +2265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2259,7 +2307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2273,7 +2321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +2349,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2315,7 +2363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2343,7 +2391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2371,7 +2419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2433,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2447,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2413,7 +2461,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2441,7 +2489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2455,7 +2503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2469,7 +2517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2483,7 +2531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2497,7 +2545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2511,7 +2559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2525,7 +2573,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2539,7 +2587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2567,7 +2615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2581,7 +2629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2609,7 +2657,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2623,7 +2671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2637,7 +2685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2665,7 +2713,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2679,7 +2727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -2693,7 +2741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -2707,7 +2755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -2721,7 +2769,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +2783,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2749,7 +2797,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -2763,7 +2811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +2825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -2791,7 +2839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2805,7 +2853,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2819,7 +2867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -2833,7 +2881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -2847,7 +2895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2923,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2889,7 +2937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2903,7 +2951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2917,7 +2965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2931,7 +2979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2945,7 +2993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +3007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +3021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2987,7 +3035,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -3001,7 +3049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -3015,7 +3063,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -3029,7 +3077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3043,7 +3091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -3057,7 +3105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -3071,7 +3119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -3085,7 +3133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3113,7 +3161,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3127,7 +3175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -3141,7 +3189,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -3155,7 +3203,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -3169,7 +3217,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -3183,7 +3231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -3197,7 +3245,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3211,7 +3259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -3225,7 +3273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -3239,7 +3287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -3267,7 +3315,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -3281,7 +3329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -3295,7 +3343,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -3309,7 +3357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -3323,7 +3371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3385,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -3351,7 +3399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3413,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -3379,7 +3427,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3393,7 +3441,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3407,7 +3455,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3421,7 +3469,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -3447,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -3461,7 +3509,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -3475,7 +3523,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>140</v>
       </c>
@@ -3489,7 +3537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>140</v>
       </c>
@@ -3503,7 +3551,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -3529,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -3543,7 +3591,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -3557,7 +3605,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -3571,7 +3619,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -3585,7 +3633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -3599,7 +3647,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -3613,7 +3661,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3627,7 +3675,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -3641,7 +3689,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3655,7 +3703,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3669,7 +3717,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3683,7 +3731,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -3697,7 +3745,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -3711,7 +3759,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>142</v>
       </c>
@@ -3725,7 +3773,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -3739,7 +3787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
         <v>144</v>
       </c>
@@ -3765,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -3779,7 +3827,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>144</v>
       </c>
@@ -3793,7 +3841,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>144</v>
       </c>
@@ -3807,7 +3855,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>144</v>
       </c>
@@ -3821,7 +3869,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>144</v>
       </c>
@@ -3835,7 +3883,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -3849,7 +3897,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>144</v>
       </c>
@@ -3863,7 +3911,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>144</v>
       </c>
@@ -3877,7 +3925,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>146</v>
       </c>
@@ -3903,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>146</v>
       </c>
@@ -3917,7 +3965,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>146</v>
       </c>
@@ -3931,7 +3979,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>146</v>
       </c>
@@ -3945,7 +3993,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>146</v>
       </c>
@@ -3959,7 +4007,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>146</v>
       </c>
@@ -3973,7 +4021,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>146</v>
       </c>
@@ -3987,7 +4035,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>146</v>
       </c>
@@ -4001,7 +4049,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>146</v>
       </c>
@@ -4015,7 +4063,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>146</v>
       </c>
@@ -4029,7 +4077,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -4043,7 +4091,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>148</v>
       </c>
@@ -4069,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>148</v>
       </c>
@@ -4083,7 +4131,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>148</v>
       </c>
@@ -4097,7 +4145,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
         <v>148</v>
       </c>
@@ -4111,7 +4159,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
         <v>148</v>
       </c>
@@ -4125,7 +4173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>148</v>
       </c>
@@ -4139,7 +4187,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
         <v>148</v>
       </c>
@@ -4153,7 +4201,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -4167,7 +4215,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
         <v>148</v>
       </c>
@@ -4181,7 +4229,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>148</v>
       </c>
@@ -4195,7 +4243,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>148</v>
       </c>
@@ -4209,7 +4257,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>148</v>
       </c>
@@ -4223,7 +4271,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>148</v>
       </c>
@@ -4237,7 +4285,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>150</v>
       </c>
@@ -4263,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>150</v>
       </c>
@@ -4277,7 +4325,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>150</v>
       </c>
@@ -4291,7 +4339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
         <v>150</v>
       </c>
@@ -4305,7 +4353,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>150</v>
       </c>
@@ -4319,7 +4367,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>150</v>
       </c>
@@ -4333,7 +4381,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>150</v>
       </c>
@@ -4347,7 +4395,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>150</v>
       </c>
@@ -4361,7 +4409,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
         <v>150</v>
       </c>
@@ -4375,7 +4423,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>150</v>
       </c>
@@ -4389,7 +4437,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>150</v>
       </c>
@@ -4403,7 +4451,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>152</v>
       </c>
@@ -4429,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>152</v>
       </c>
@@ -4443,7 +4491,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -4457,7 +4505,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>152</v>
       </c>
@@ -4471,7 +4519,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>152</v>
       </c>
@@ -4485,7 +4533,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>152</v>
       </c>
@@ -4499,7 +4547,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>152</v>
       </c>
@@ -4513,7 +4561,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>152</v>
       </c>
@@ -4527,7 +4575,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>152</v>
       </c>
@@ -4541,7 +4589,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>154</v>
       </c>
@@ -4567,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>154</v>
       </c>
@@ -4581,7 +4629,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
         <v>154</v>
       </c>
@@ -4595,7 +4643,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
         <v>154</v>
       </c>
@@ -4609,7 +4657,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
         <v>154</v>
       </c>
@@ -4623,7 +4671,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>154</v>
       </c>
@@ -4637,7 +4685,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
         <v>156</v>
       </c>
@@ -4663,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
         <v>156</v>
       </c>
@@ -4677,7 +4725,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
         <v>156</v>
       </c>
@@ -4691,7 +4739,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
         <v>156</v>
       </c>
@@ -4705,7 +4753,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
         <v>156</v>
       </c>
@@ -4719,7 +4767,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
         <v>156</v>
       </c>
@@ -4733,7 +4781,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
         <v>156</v>
       </c>
@@ -4747,7 +4795,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
         <v>156</v>
       </c>
@@ -4761,7 +4809,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
         <v>158</v>
       </c>
@@ -4787,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
         <v>158</v>
       </c>
@@ -4801,7 +4849,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -4815,7 +4863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
         <v>158</v>
       </c>
@@ -4829,7 +4877,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
         <v>158</v>
       </c>
@@ -4843,7 +4891,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -4857,7 +4905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -4871,7 +4919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -4885,7 +4933,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -4899,7 +4947,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -4913,7 +4961,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -4927,7 +4975,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -4941,7 +4989,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -4955,7 +5003,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -4969,7 +5017,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -4983,7 +5031,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -4997,7 +5045,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -5011,7 +5059,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -5025,7 +5073,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>158</v>
       </c>
@@ -5039,7 +5087,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>158</v>
       </c>
@@ -5053,7 +5101,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>160</v>
       </c>
@@ -5079,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>160</v>
       </c>
@@ -5093,7 +5141,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
         <v>160</v>
       </c>
@@ -5107,7 +5155,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
         <v>160</v>
       </c>
@@ -5121,7 +5169,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
         <v>160</v>
       </c>
@@ -5135,7 +5183,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>160</v>
       </c>
@@ -5149,7 +5197,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>160</v>
       </c>
@@ -5163,7 +5211,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>160</v>
       </c>
@@ -5177,7 +5225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>160</v>
       </c>
@@ -5191,7 +5239,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>171</v>
       </c>
@@ -5205,7 +5253,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>171</v>
       </c>
@@ -5219,7 +5267,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>171</v>
       </c>
@@ -5233,7 +5281,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>171</v>
       </c>
@@ -5247,7 +5295,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>171</v>
       </c>
@@ -5261,7 +5309,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>171</v>
       </c>
@@ -5275,7 +5323,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>171</v>
       </c>
@@ -5289,7 +5337,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>171</v>
       </c>
@@ -5303,7 +5351,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>171</v>
       </c>
@@ -5317,7 +5365,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>171</v>
       </c>
@@ -5331,7 +5379,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>171</v>
       </c>
@@ -5345,7 +5393,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>171</v>
       </c>
@@ -5359,7 +5407,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
         <v>171</v>
       </c>
@@ -5373,7 +5421,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
         <v>171</v>
       </c>
@@ -5387,7 +5435,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
         <v>171</v>
       </c>
@@ -5401,7 +5449,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
         <v>171</v>
       </c>
@@ -5415,7 +5463,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
         <v>162</v>
       </c>
@@ -5441,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
         <v>162</v>
       </c>
@@ -5455,7 +5503,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
         <v>162</v>
       </c>
@@ -5469,7 +5517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
         <v>162</v>
       </c>
@@ -5483,7 +5531,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
         <v>162</v>
       </c>
@@ -5497,7 +5545,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
         <v>162</v>
       </c>
@@ -5511,7 +5559,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
         <v>162</v>
       </c>
@@ -5525,7 +5573,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
         <v>162</v>
       </c>
@@ -5539,7 +5587,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
         <v>164</v>
       </c>
@@ -5565,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
         <v>164</v>
       </c>
@@ -5579,7 +5627,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
         <v>164</v>
       </c>
@@ -5593,7 +5641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
         <v>164</v>
       </c>
@@ -5607,7 +5655,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
         <v>164</v>
       </c>
@@ -5621,7 +5669,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
         <v>164</v>
       </c>
@@ -5635,7 +5683,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
         <v>166</v>
       </c>
@@ -5661,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
         <v>166</v>
       </c>
@@ -5675,7 +5723,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
         <v>166</v>
       </c>
@@ -5689,7 +5737,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
         <v>166</v>
       </c>
@@ -5703,7 +5751,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
         <v>166</v>
       </c>
@@ -5717,7 +5765,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
         <v>166</v>
       </c>
@@ -5731,7 +5779,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
         <v>166</v>
       </c>
@@ -5745,7 +5793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
         <v>166</v>
       </c>
@@ -5759,7 +5807,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
         <v>166</v>
       </c>
@@ -5773,7 +5821,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
         <v>166</v>
       </c>
@@ -5787,7 +5835,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
         <v>166</v>
       </c>
@@ -5801,7 +5849,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
         <v>166</v>
       </c>
@@ -5815,7 +5863,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
         <v>166</v>
       </c>
@@ -5829,7 +5877,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
         <v>166</v>
       </c>
@@ -5843,7 +5891,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
         <v>166</v>
       </c>
@@ -5857,7 +5905,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
         <v>166</v>
       </c>
@@ -5871,7 +5919,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
         <v>166</v>
       </c>
@@ -5885,7 +5933,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
         <v>166</v>
       </c>
@@ -5899,7 +5947,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
         <v>166</v>
       </c>
@@ -5913,7 +5961,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
         <v>166</v>
       </c>
@@ -5927,7 +5975,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
         <v>166</v>
       </c>
@@ -5941,7 +5989,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
         <v>166</v>
       </c>
@@ -5955,7 +6003,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
         <v>168</v>
       </c>
@@ -5981,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
         <v>168</v>
       </c>
@@ -5995,7 +6043,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
         <v>168</v>
       </c>
@@ -6009,7 +6057,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
         <v>168</v>
       </c>
@@ -6023,7 +6071,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
         <v>168</v>
       </c>
@@ -6037,7 +6085,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
         <v>168</v>
       </c>
@@ -6051,7 +6099,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
         <v>168</v>
       </c>
@@ -6065,7 +6113,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
         <v>168</v>
       </c>
@@ -6079,7 +6127,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>168</v>
       </c>
@@ -6093,7 +6141,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>168</v>
       </c>
@@ -6107,7 +6155,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>168</v>
       </c>
@@ -6121,7 +6169,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>168</v>
       </c>
@@ -6135,7 +6183,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>168</v>
       </c>
@@ -6149,7 +6197,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>168</v>
       </c>
@@ -6163,7 +6211,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>168</v>
       </c>
@@ -6177,7 +6225,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>168</v>
       </c>
@@ -6191,7 +6239,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>168</v>
       </c>
@@ -6205,7 +6253,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>168</v>
       </c>
@@ -6219,7 +6267,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>168</v>
       </c>
@@ -6233,7 +6281,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>168</v>
       </c>
@@ -6247,7 +6295,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>168</v>
       </c>
@@ -6261,7 +6309,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>168</v>
       </c>
@@ -6275,7 +6323,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>168</v>
       </c>
@@ -6289,7 +6337,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>168</v>
       </c>
@@ -6303,7 +6351,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>168</v>
       </c>
@@ -6317,7 +6365,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>168</v>
       </c>
@@ -6331,7 +6379,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>168</v>
       </c>
@@ -6345,7 +6393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>168</v>
       </c>
@@ -6359,7 +6407,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>168</v>
       </c>
@@ -6373,7 +6421,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>168</v>
       </c>
@@ -6387,7 +6435,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>168</v>
       </c>
@@ -6401,7 +6449,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>168</v>
       </c>
@@ -6415,7 +6463,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>168</v>
       </c>
@@ -6429,7 +6477,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>168</v>
       </c>
@@ -6443,7 +6491,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>168</v>
       </c>
@@ -6457,7 +6505,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>168</v>
       </c>
@@ -6471,7 +6519,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>168</v>
       </c>
@@ -6485,7 +6533,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>168</v>
       </c>
@@ -6499,7 +6547,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>168</v>
       </c>
@@ -6513,7 +6561,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>168</v>
       </c>
@@ -6527,7 +6575,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337" t="s">
         <v>168</v>
       </c>
@@ -6541,7 +6589,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338" t="s">
         <v>168</v>
       </c>
@@ -6555,7 +6603,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339" t="s">
         <v>168</v>
       </c>
@@ -6569,7 +6617,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340" t="s">
         <v>168</v>
       </c>
@@ -6583,7 +6631,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341" t="s">
         <v>170</v>
       </c>
@@ -6609,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342" t="s">
         <v>170</v>
       </c>
@@ -6623,7 +6671,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343" t="s">
         <v>170</v>
       </c>
@@ -6637,7 +6685,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344" t="s">
         <v>170</v>
       </c>
@@ -6651,7 +6699,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345" t="s">
         <v>170</v>
       </c>
@@ -6665,7 +6713,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346" t="s">
         <v>170</v>
       </c>
@@ -6679,7 +6727,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347" t="s">
         <v>170</v>
       </c>
@@ -6693,7 +6741,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348" t="s">
         <v>170</v>
       </c>
@@ -6707,7 +6755,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349" t="s">
         <v>170</v>
       </c>
@@ -6721,7 +6769,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350" t="s">
         <v>170</v>
       </c>
@@ -6735,7 +6783,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351" t="s">
         <v>170</v>
       </c>
@@ -6749,7 +6797,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352" t="s">
         <v>170</v>
       </c>
@@ -6763,7 +6811,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>170</v>
       </c>
@@ -6777,7 +6825,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>170</v>
       </c>
@@ -6791,7 +6839,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>170</v>
       </c>
@@ -6805,7 +6853,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>170</v>
       </c>
@@ -6819,7 +6867,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>170</v>
       </c>
@@ -6835,10 +6883,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6846,18 +6899,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" hidden="1" customWidth="1"/>
     <col min="4" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6927,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -6894,7 +6947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -6914,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -6934,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -6954,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -6974,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -6994,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>149</v>
       </c>
@@ -7014,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -7034,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -7054,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -7074,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -7094,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -7114,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -7134,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -7154,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -7174,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -7194,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -7214,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -7239,5 +7292,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>